--- a/public/uploads/excel/student import(with parent).xlsx
+++ b/public/uploads/excel/student import(with parent).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simsh\Desktop\prim test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFBF5922-B6E5-4521-BF3C-87D05F2A3EB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0536E0CE-8699-4EDF-883A-6D6C438A5E38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -928,7 +928,7 @@
   <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/public/uploads/excel/student import(with parent).xlsx
+++ b/public/uploads/excel/student import(with parent).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simsh\Desktop\prim test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simsh\Desktop\prim document\school import test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0536E0CE-8699-4EDF-883A-6D6C438A5E38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2EFFF37-727D-430B-A90A-CA53DAADB114}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19310" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="179">
   <si>
     <t>Bil</t>
   </si>
@@ -36,9 +36,6 @@
     <t>No. KP</t>
   </si>
   <si>
-    <t>Jantina</t>
-  </si>
-  <si>
     <t>email</t>
   </si>
   <si>
@@ -48,9 +45,6 @@
     <t>041029011100</t>
   </si>
   <si>
-    <t>P</t>
-  </si>
-  <si>
     <t>aslindaze@gmail.com</t>
   </si>
   <si>
@@ -58,9 +52,6 @@
   </si>
   <si>
     <t>040615101809</t>
-  </si>
-  <si>
-    <t>L</t>
   </si>
   <si>
     <t>syamilrao@gmail.com</t>
@@ -608,7 +599,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -631,12 +622,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -644,6 +648,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -925,25 +936,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H30"/>
+  <dimension ref="A1:H61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="H46" sqref="H46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="43" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="32.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.21875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.42578125" customWidth="1"/>
+    <col min="5" max="5" width="32.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -956,834 +967,1044 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
+      <c r="E1" s="2" t="s">
+        <v>177</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+        <v>148</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="H1" s="6"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E2" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="H2" s="6"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E3" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="H3" s="6"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="H4" s="6"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="H5" s="6"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="H6" s="6"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="H7" s="6"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="H8" s="6"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="H9" s="6"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="H10" s="6"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="H11" s="6"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="H12" s="6"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="H13" s="6"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="H14" s="6"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="H15" s="6"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="H16" s="6"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="H17" s="6"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="H18" s="6"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="H19" s="6"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="G20" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+        <v>59</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="H20" s="6"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="H21" s="6"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="G22" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="H22" s="6"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="G23" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+        <v>68</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="H23" s="6"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="G24" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="H24" s="2" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="H24" s="6"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="G25" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="H25" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+        <v>74</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="H25" s="6"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="G26" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="H26" s="2" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+        <v>77</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="H26" s="6"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="G27" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="H27" s="6"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="G28" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="H28" s="2" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+        <v>83</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="H28" s="6"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="G29" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="H29" s="2" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+        <v>86</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="H29" s="6"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="G30" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="H30" s="2" t="s">
-        <v>149</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="H30" s="6"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="7"/>
+      <c r="B32" s="6"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="7"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="6"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="7"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="6"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="7"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="6"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="7"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="6"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="7"/>
+      <c r="B37" s="6"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="6"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="7"/>
+      <c r="B38" s="6"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="6"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="7"/>
+      <c r="B39" s="6"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="6"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="7"/>
+      <c r="B40" s="6"/>
+      <c r="C40" s="7"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="9"/>
+      <c r="G40" s="6"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="7"/>
+      <c r="B41" s="6"/>
+      <c r="C41" s="7"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="6"/>
+      <c r="F41" s="9"/>
+      <c r="G41" s="6"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="7"/>
+      <c r="B42" s="6"/>
+      <c r="C42" s="7"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="6"/>
+      <c r="F42" s="9"/>
+      <c r="G42" s="6"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="7"/>
+      <c r="B43" s="6"/>
+      <c r="C43" s="7"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="6"/>
+      <c r="F43" s="9"/>
+      <c r="G43" s="6"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="7"/>
+      <c r="B44" s="6"/>
+      <c r="C44" s="7"/>
+      <c r="D44" s="8"/>
+      <c r="E44" s="6"/>
+      <c r="F44" s="9"/>
+      <c r="G44" s="6"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="7"/>
+      <c r="B45" s="6"/>
+      <c r="C45" s="7"/>
+      <c r="D45" s="8"/>
+      <c r="E45" s="6"/>
+      <c r="F45" s="9"/>
+      <c r="G45" s="6"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="7"/>
+      <c r="B46" s="6"/>
+      <c r="C46" s="7"/>
+      <c r="D46" s="8"/>
+      <c r="E46" s="6"/>
+      <c r="F46" s="9"/>
+      <c r="G46" s="6"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="7"/>
+      <c r="B47" s="6"/>
+      <c r="C47" s="7"/>
+      <c r="D47" s="8"/>
+      <c r="E47" s="6"/>
+      <c r="F47" s="9"/>
+      <c r="G47" s="6"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="7"/>
+      <c r="B48" s="6"/>
+      <c r="C48" s="7"/>
+      <c r="D48" s="9"/>
+      <c r="E48" s="6"/>
+      <c r="F48" s="9"/>
+      <c r="G48" s="6"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="7"/>
+      <c r="B49" s="6"/>
+      <c r="C49" s="7"/>
+      <c r="D49" s="8"/>
+      <c r="E49" s="6"/>
+      <c r="F49" s="9"/>
+      <c r="G49" s="6"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="7"/>
+      <c r="B50" s="6"/>
+      <c r="C50" s="7"/>
+      <c r="D50" s="8"/>
+      <c r="E50" s="6"/>
+      <c r="F50" s="9"/>
+      <c r="G50" s="6"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="7"/>
+      <c r="B51" s="6"/>
+      <c r="C51" s="7"/>
+      <c r="D51" s="8"/>
+      <c r="E51" s="6"/>
+      <c r="F51" s="9"/>
+      <c r="G51" s="6"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="7"/>
+      <c r="B52" s="6"/>
+      <c r="C52" s="7"/>
+      <c r="D52" s="8"/>
+      <c r="E52" s="6"/>
+      <c r="F52" s="9"/>
+      <c r="G52" s="6"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" s="7"/>
+      <c r="B53" s="6"/>
+      <c r="C53" s="7"/>
+      <c r="D53" s="8"/>
+      <c r="E53" s="6"/>
+      <c r="F53" s="9"/>
+      <c r="G53" s="6"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" s="7"/>
+      <c r="B54" s="6"/>
+      <c r="C54" s="7"/>
+      <c r="D54" s="8"/>
+      <c r="E54" s="6"/>
+      <c r="F54" s="9"/>
+      <c r="G54" s="6"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" s="7"/>
+      <c r="B55" s="6"/>
+      <c r="C55" s="7"/>
+      <c r="D55" s="8"/>
+      <c r="E55" s="6"/>
+      <c r="F55" s="9"/>
+      <c r="G55" s="6"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" s="7"/>
+      <c r="B56" s="6"/>
+      <c r="C56" s="7"/>
+      <c r="D56" s="8"/>
+      <c r="E56" s="6"/>
+      <c r="F56" s="9"/>
+      <c r="G56" s="6"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" s="7"/>
+      <c r="B57" s="6"/>
+      <c r="C57" s="7"/>
+      <c r="D57" s="8"/>
+      <c r="E57" s="6"/>
+      <c r="F57" s="9"/>
+      <c r="G57" s="6"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" s="7"/>
+      <c r="B58" s="6"/>
+      <c r="C58" s="7"/>
+      <c r="D58" s="8"/>
+      <c r="E58" s="6"/>
+      <c r="F58" s="9"/>
+      <c r="G58" s="6"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" s="7"/>
+      <c r="B59" s="6"/>
+      <c r="C59" s="7"/>
+      <c r="D59" s="8"/>
+      <c r="E59" s="6"/>
+      <c r="F59" s="9"/>
+      <c r="G59" s="6"/>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" s="7"/>
+      <c r="B60" s="6"/>
+      <c r="C60" s="7"/>
+      <c r="D60" s="8"/>
+      <c r="E60" s="6"/>
+      <c r="F60" s="9"/>
+      <c r="G60" s="6"/>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" s="7"/>
+      <c r="B61" s="6"/>
+      <c r="C61" s="7"/>
+      <c r="D61" s="8"/>
+      <c r="E61" s="6"/>
+      <c r="F61" s="9"/>
+      <c r="G61" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E4" r:id="rId1" xr:uid="{9C6B5CBA-B580-4F84-BB0C-CF9B94B5A722}"/>
-    <hyperlink ref="E27" r:id="rId2" xr:uid="{1145A9E4-A398-423E-AFF3-3D52E9B5CF50}"/>
-    <hyperlink ref="E18" r:id="rId3" xr:uid="{09DCEC99-0C7E-4E01-BE13-565F86C8E362}"/>
-    <hyperlink ref="E11" r:id="rId4" xr:uid="{F8836A0A-24B6-456D-AB0D-00D5E6A5414C}"/>
-    <hyperlink ref="E28" r:id="rId5" xr:uid="{3898C8F2-89D2-46E9-B44B-C67473F77CA4}"/>
-    <hyperlink ref="E6" r:id="rId6" xr:uid="{D05FB035-B645-4AD5-A30A-5023D52C7629}"/>
-    <hyperlink ref="E10" r:id="rId7" xr:uid="{E77E61DC-67D1-4298-9553-3B21D95D3E2C}"/>
-    <hyperlink ref="E14" r:id="rId8" xr:uid="{C6A759A8-978A-4C9D-BAD0-654511E65763}"/>
-    <hyperlink ref="E19" r:id="rId9" xr:uid="{A47A14F9-2BF4-4F13-B82C-69CC99FE9655}"/>
-    <hyperlink ref="E30" r:id="rId10" xr:uid="{92D3B529-4C02-4311-8721-2AD8C5488522}"/>
-    <hyperlink ref="E29" r:id="rId11" xr:uid="{238A2F6E-F8FB-42BC-ADD0-7DDC09215466}"/>
-    <hyperlink ref="E13" r:id="rId12" xr:uid="{4EEEC2C2-3360-4745-8502-2C701E4FAD50}"/>
-    <hyperlink ref="E15" r:id="rId13" xr:uid="{63DD4579-E1C0-40F7-B98F-A82B191DEEFA}"/>
-    <hyperlink ref="E25" r:id="rId14" xr:uid="{A02B4E7D-4F2F-4DD6-B7C7-2AB2E2851596}"/>
-    <hyperlink ref="E20" r:id="rId15" xr:uid="{C3A4D9AB-1026-4CE7-BD77-0368A2E81F76}"/>
-    <hyperlink ref="E23" r:id="rId16" xr:uid="{66AA48A7-3D32-457E-884A-81F5ECA10EEB}"/>
-    <hyperlink ref="E8" r:id="rId17" xr:uid="{30F598B4-9B1E-44AB-9950-9683D3853033}"/>
-    <hyperlink ref="E26" r:id="rId18" xr:uid="{9A9C8DF8-02E2-4FC2-91B3-5381F309FF18}"/>
-    <hyperlink ref="E9" r:id="rId19" xr:uid="{6359B3BE-770C-422D-B9CD-ACFAEF712656}"/>
-    <hyperlink ref="E22" r:id="rId20" xr:uid="{F1C664D9-2786-41FD-9A61-35DC7F44E04A}"/>
-    <hyperlink ref="E3" r:id="rId21" xr:uid="{EE7E180B-B291-4663-B9CF-3C841FD24A68}"/>
-    <hyperlink ref="E7" r:id="rId22" xr:uid="{ACD676E7-1FE2-4DF3-92FC-B5E79939DC68}"/>
-    <hyperlink ref="E5" r:id="rId23" xr:uid="{F16EE119-2774-4C29-89D0-A050D766B398}"/>
-    <hyperlink ref="E16" r:id="rId24" xr:uid="{64FE9D9B-0453-4BCB-8303-3023D0F7DC94}"/>
-    <hyperlink ref="E21" r:id="rId25" xr:uid="{60F33060-6889-4980-81A0-4CFE87F8CBD0}"/>
-    <hyperlink ref="E24" r:id="rId26" xr:uid="{5F7102A8-0E2F-46C8-993F-209ACC48FF22}"/>
-    <hyperlink ref="E2" r:id="rId27" xr:uid="{3EBEDA74-1A31-4ED6-A86F-33BCD23A3B2C}"/>
-    <hyperlink ref="E12" r:id="rId28" xr:uid="{0A369EAB-B838-4405-89B2-E1D84E302CFB}"/>
-    <hyperlink ref="E17" r:id="rId29" xr:uid="{3CCE71DC-76B4-4427-8C4B-F1F70C35C600}"/>
-    <hyperlink ref="G2" r:id="rId30" xr:uid="{8B057A76-5406-4936-B4A2-F4F2FFD37B29}"/>
-    <hyperlink ref="G4" r:id="rId31" xr:uid="{0524E183-610B-429A-A71B-12EDD2128373}"/>
-    <hyperlink ref="G6" r:id="rId32" xr:uid="{99B969EC-158F-4767-9DCD-63293A6A5F1D}"/>
-    <hyperlink ref="G7" r:id="rId33" xr:uid="{93529EAB-3D87-4057-B915-FCF7D796FD5D}"/>
-    <hyperlink ref="G5" r:id="rId34" xr:uid="{239E9545-4444-48C5-9B33-616BCC1003A7}"/>
-    <hyperlink ref="G8" r:id="rId35" xr:uid="{A4F4313E-C104-4850-B768-341AAD877B06}"/>
-    <hyperlink ref="G9" r:id="rId36" xr:uid="{E3D0BD43-2620-43F1-B571-53D9ECA6AC5D}"/>
-    <hyperlink ref="G10" r:id="rId37" xr:uid="{876EF1E8-9A3D-4CEE-9D21-6A5D8DD17607}"/>
-    <hyperlink ref="G11" r:id="rId38" xr:uid="{86D07A20-252A-455A-B297-BC49771E06DF}"/>
-    <hyperlink ref="G12" r:id="rId39" xr:uid="{5F48A34C-CAC9-4E97-BA07-B2C1E593E383}"/>
-    <hyperlink ref="G13" r:id="rId40" xr:uid="{2B1E9B47-F7D4-42A0-9D79-89A875220F04}"/>
-    <hyperlink ref="G30" r:id="rId41" xr:uid="{A275271D-7981-455B-85B0-90AD4DB04DC4}"/>
-    <hyperlink ref="G29" r:id="rId42" xr:uid="{11E50DCB-A597-4D5E-90E3-0A4E20C68AA7}"/>
-    <hyperlink ref="G28" r:id="rId43" xr:uid="{C4CDD23C-6E2C-44FC-8075-5B2BC69C9CB4}"/>
-    <hyperlink ref="G27" r:id="rId44" xr:uid="{E61A26AF-C0EA-44E0-A22C-F02F4F72474F}"/>
-    <hyperlink ref="G26" r:id="rId45" xr:uid="{D1BC7F69-46C8-4750-AE8B-B4BD7B954EDE}"/>
-    <hyperlink ref="G25" r:id="rId46" xr:uid="{857D4958-4013-48ED-A559-FFCDB6907552}"/>
-    <hyperlink ref="G24" r:id="rId47" xr:uid="{20052258-06CF-4905-858B-ECF33B8FE967}"/>
-    <hyperlink ref="G23" r:id="rId48" xr:uid="{27F181FE-7CCD-4534-A304-599945388655}"/>
-    <hyperlink ref="G22" r:id="rId49" xr:uid="{C9AE8757-065C-4974-9B2B-DC579A07C7C7}"/>
-    <hyperlink ref="G21" r:id="rId50" xr:uid="{D47E6CF4-4464-412D-825F-E3C5D61A55CA}"/>
-    <hyperlink ref="G20" r:id="rId51" xr:uid="{3741D129-8451-454C-87CB-534820FDABE6}"/>
-    <hyperlink ref="G14" r:id="rId52" xr:uid="{1CB3D657-C6F8-4EB5-829C-46567EA65113}"/>
-    <hyperlink ref="G15" r:id="rId53" xr:uid="{9E215223-9D81-4FA2-97ED-061BE7A90525}"/>
-    <hyperlink ref="G16" r:id="rId54" xr:uid="{378D49C7-0F41-4855-B1DE-943FA379DBA7}"/>
-    <hyperlink ref="G17" r:id="rId55" xr:uid="{5F0963EB-413A-438E-AA74-FD479193D016}"/>
-    <hyperlink ref="G18" r:id="rId56" xr:uid="{07E850B0-FDC9-4922-AE9F-3646D2CC55B2}"/>
-    <hyperlink ref="G19" r:id="rId57" xr:uid="{472BA13E-E759-481B-941D-4CBC0C12CE8A}"/>
-    <hyperlink ref="G3" r:id="rId58" xr:uid="{65D10D77-4FFD-4438-A1DD-0ECCABC4846F}"/>
+    <hyperlink ref="F3" r:id="rId1" xr:uid="{CFC63F18-BB51-4A00-B385-FF335023023D}"/>
+    <hyperlink ref="F19" r:id="rId2" xr:uid="{6800D98F-A500-400A-B0DF-ED9CAE5F092B}"/>
+    <hyperlink ref="F18" r:id="rId3" xr:uid="{E265B879-36B5-40B1-8310-EBA2CADD4A7F}"/>
+    <hyperlink ref="F17" r:id="rId4" xr:uid="{4E27E3FF-89F2-4C63-BA67-1227801056D2}"/>
+    <hyperlink ref="F16" r:id="rId5" xr:uid="{8AA3461D-EA7D-47B1-8C92-66D6F15BE035}"/>
+    <hyperlink ref="F15" r:id="rId6" xr:uid="{C569088F-0710-4DAA-86CF-D6EE3D38DB9C}"/>
+    <hyperlink ref="F14" r:id="rId7" xr:uid="{A62D54C3-D7CF-4AF4-AFA5-44A48A7ECECF}"/>
+    <hyperlink ref="F20" r:id="rId8" xr:uid="{5F237E4E-56BB-4A4B-A3EF-9B2F0C7438EE}"/>
+    <hyperlink ref="F21" r:id="rId9" xr:uid="{222C88FE-8CE9-4B1B-98BD-80ADC154AF6E}"/>
+    <hyperlink ref="F22" r:id="rId10" xr:uid="{05DE5EF1-C5C6-4E7F-B019-ED47AD16B216}"/>
+    <hyperlink ref="F23" r:id="rId11" xr:uid="{E7262B35-2963-423C-A854-2F612FF21326}"/>
+    <hyperlink ref="F24" r:id="rId12" xr:uid="{AAB1B3B7-0CB8-4E71-A89C-B342036153A9}"/>
+    <hyperlink ref="F25" r:id="rId13" xr:uid="{AE7546CE-52B5-4696-99DD-1FADEEBB0524}"/>
+    <hyperlink ref="F26" r:id="rId14" xr:uid="{3DF3FF97-653E-474B-8128-535835D46B55}"/>
+    <hyperlink ref="F27" r:id="rId15" xr:uid="{BA957EAF-DF2C-4C5A-A9B6-E031084FB112}"/>
+    <hyperlink ref="F28" r:id="rId16" xr:uid="{C5B2EFB3-FC80-4573-88B7-453DA37650D4}"/>
+    <hyperlink ref="F29" r:id="rId17" xr:uid="{F97DC691-C593-4BE6-9375-B2B9F6A4FF25}"/>
+    <hyperlink ref="F30" r:id="rId18" xr:uid="{CA248FBC-E56A-4983-942A-DE22EC5E89AF}"/>
+    <hyperlink ref="F13" r:id="rId19" xr:uid="{160C859A-C0CD-4B95-B2C8-15D907AFE82B}"/>
+    <hyperlink ref="F12" r:id="rId20" xr:uid="{E150B6DD-FE04-4C24-9A01-2DA7A8E36DCB}"/>
+    <hyperlink ref="F11" r:id="rId21" xr:uid="{A81060C6-1A7D-4408-A43A-0EAA0FA826D4}"/>
+    <hyperlink ref="F10" r:id="rId22" xr:uid="{655AF83D-E378-483D-B432-086755EAFD22}"/>
+    <hyperlink ref="F9" r:id="rId23" xr:uid="{939E88A6-492A-415D-A596-BC870A36839C}"/>
+    <hyperlink ref="F8" r:id="rId24" xr:uid="{3A4FA7C3-3769-48BE-8369-EFCD98423523}"/>
+    <hyperlink ref="F5" r:id="rId25" xr:uid="{AE2D1FEE-BEA7-4B6E-BDEB-5EFE186815F5}"/>
+    <hyperlink ref="F7" r:id="rId26" xr:uid="{52DFFD41-722F-4B01-972A-9EA6187BFF6C}"/>
+    <hyperlink ref="F6" r:id="rId27" xr:uid="{27BE4D37-7525-4810-9764-2B41F57C9C1B}"/>
+    <hyperlink ref="F4" r:id="rId28" xr:uid="{098B46D5-268B-495C-968C-9C153D5E9B1E}"/>
+    <hyperlink ref="F2" r:id="rId29" xr:uid="{26EC2890-FD52-4903-B30C-640398453962}"/>
+    <hyperlink ref="D17" r:id="rId30" xr:uid="{ABABE06D-6F73-42B9-B1FA-34A1F0DE6EB5}"/>
+    <hyperlink ref="D12" r:id="rId31" xr:uid="{32C9551B-1C76-4422-882C-DED9C986985C}"/>
+    <hyperlink ref="D2" r:id="rId32" xr:uid="{295B18FB-08F8-44CB-BDC9-660AC4BB3B1E}"/>
+    <hyperlink ref="D24" r:id="rId33" xr:uid="{B9ACD7B4-3BA0-46FD-A146-FC85BF281B42}"/>
+    <hyperlink ref="D21" r:id="rId34" xr:uid="{B2E3A56A-690A-4E79-9E00-4BC386E8BD38}"/>
+    <hyperlink ref="D16" r:id="rId35" xr:uid="{7EB72CC3-0A2F-4A1C-91B8-3FC53FD9D5D9}"/>
+    <hyperlink ref="D5" r:id="rId36" xr:uid="{723EC93B-52A2-4262-B41F-14BFA589AEC8}"/>
+    <hyperlink ref="D7" r:id="rId37" xr:uid="{2B240530-0F96-4699-8788-BFD9DF9364A7}"/>
+    <hyperlink ref="D3" r:id="rId38" xr:uid="{DBAE4018-3DFE-4356-90E9-1E94044D3A69}"/>
+    <hyperlink ref="D22" r:id="rId39" xr:uid="{4F713BAD-00D9-4115-939F-01402C273B70}"/>
+    <hyperlink ref="D9" r:id="rId40" xr:uid="{44A06F8A-B26B-4C0F-AD44-CBE2B5244707}"/>
+    <hyperlink ref="D26" r:id="rId41" xr:uid="{804449C3-801D-46B5-9E5E-45DDE8661E50}"/>
+    <hyperlink ref="D8" r:id="rId42" xr:uid="{4D627E73-ED07-41F5-BF38-C2845C784F4C}"/>
+    <hyperlink ref="D23" r:id="rId43" xr:uid="{682A3313-D887-4FED-832D-50DF3ADA93C1}"/>
+    <hyperlink ref="D20" r:id="rId44" xr:uid="{5EF278F1-B61D-4433-9FC3-615CFC83AE0F}"/>
+    <hyperlink ref="D25" r:id="rId45" xr:uid="{51A095E9-83A3-4F1B-BA07-70A6924C8B62}"/>
+    <hyperlink ref="D15" r:id="rId46" xr:uid="{948052D6-B70A-4E2E-82DE-46D4B0B7714B}"/>
+    <hyperlink ref="D13" r:id="rId47" xr:uid="{1415C914-0269-428E-AF94-D80BA83AFDC0}"/>
+    <hyperlink ref="D29" r:id="rId48" xr:uid="{EA7302D0-0AAB-4C73-AA0C-768EA6E1E727}"/>
+    <hyperlink ref="D30" r:id="rId49" xr:uid="{D7728E6B-B9D2-40C9-BAB3-58368CA97EEA}"/>
+    <hyperlink ref="D19" r:id="rId50" xr:uid="{6B271A76-96BE-46A9-91FD-0129A7022974}"/>
+    <hyperlink ref="D14" r:id="rId51" xr:uid="{A828B19B-FEBE-4501-AB64-D71740C84275}"/>
+    <hyperlink ref="D10" r:id="rId52" xr:uid="{CC105119-A962-44EC-A493-FDC746AE2AB0}"/>
+    <hyperlink ref="D6" r:id="rId53" xr:uid="{C9332DD2-8293-44B8-A4C6-211F55FEA248}"/>
+    <hyperlink ref="D28" r:id="rId54" xr:uid="{044A2EE4-EDAE-4EFC-B138-F2C085BB3E2A}"/>
+    <hyperlink ref="D11" r:id="rId55" xr:uid="{EE3F9876-EE1C-49FA-A66B-47FFA1C5CE66}"/>
+    <hyperlink ref="D18" r:id="rId56" xr:uid="{1801235E-5311-420C-A587-9226258D425F}"/>
+    <hyperlink ref="D27" r:id="rId57" xr:uid="{6F5A76DD-66FE-41E1-963A-73D915B8B256}"/>
+    <hyperlink ref="D4" r:id="rId58" xr:uid="{383972E4-D2B3-4518-B8CC-D228FF9D66AA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId59"/>

--- a/public/uploads/excel/student import(with parent).xlsx
+++ b/public/uploads/excel/student import(with parent).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simsh\Desktop\prim document\school import test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2EFFF37-727D-430B-A90A-CA53DAADB114}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{217BFD32-E8FA-4ADE-8E16-77C50CCC41F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19310" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
